--- a/pr.xlsx
+++ b/pr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Ych\PR\0101oshepkov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\prak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195643ED-33EC-4B15-88A3-873170CCFD1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9D09E2-D294-4ED3-9207-FEA699C5F3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,12 +437,12 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -480,20 +480,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
@@ -518,12 +518,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
